--- a/heel_tracking_output.xlsx
+++ b/heel_tracking_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yokolu/NSF_Floor_Vib_Camera-Labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0E89C6A1-7C7B-6E45-8B7C-F5029EA44283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{03DDA82D-B2AE-C04F-94BF-83CE1178F693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{17C5DEC1-7960-7C45-B650-DF6012D4E538}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{17C5DEC1-7960-7C45-B650-DF6012D4E538}"/>
   </bookViews>
   <sheets>
     <sheet name="heel_tracking_output" sheetId="1" r:id="rId1"/>
@@ -575,6 +575,5565 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>North</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to South: Heel Pose Detection (Full Package)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heel_tracking_output!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeftHeel_Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>heel_tracking_output!$B:$B</c:f>
+              <c:strCache>
+                <c:ptCount val="378"/>
+                <c:pt idx="0">
+                  <c:v>Timestamp_ms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>396000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>495000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>528000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>561000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>594000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>627000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>693000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>726000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>759000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>792000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>858000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>891000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>924000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>957000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1023000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1056000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1089000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1122000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1155000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1188000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1221000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1254000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1287000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1353000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1386000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1419000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1452000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1485000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1518000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1551000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1584000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1617000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1683000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1716000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1749000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1782000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1815000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1848000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1881000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1914000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1947000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2013000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2046000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2079000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2112000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2145000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2178000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2211000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2244000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2277000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2310000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2343000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2376000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2409000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2442000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2475000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2508000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2541000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2574000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2607000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2640000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2673000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2706000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2739000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2772000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2805000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2838000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2871000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2904000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2937000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2970000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3003000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3036000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3069000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3102000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3135000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3168000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3201000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3234000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3267000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3333000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3366000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3399000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3432000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3465000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3498000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3531000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3564000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3597000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3630000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3663000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3696000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3729000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3762000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3795000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3828000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3861000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3894000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3927000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3960000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3993000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4026000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4059000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4092000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4125000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4158000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4191000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4224000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4257000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4290000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4323000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4356000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4389000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4422000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4455000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4488000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4521000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4554000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4587000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4620000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4653000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4686000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4719000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4752000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4785000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4818000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4851000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4884000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4917000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4950000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4983000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5016000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5049000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5082000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5115000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5148000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5181000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5214000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5247000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5280000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5313000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5346000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5379000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5412000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5445000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5478000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5511000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5544000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5577000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5610000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5643000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5676000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5709000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5742000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5775000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5808000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5841000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5874000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5907000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5940000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5973000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6006000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6039000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6072000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6105000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6138000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6171000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6204000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6237000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6270000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6303000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6336000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6369000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6402000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6435000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6468000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6501000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6534000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6567000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6600000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6633000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6666000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6699000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6732000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6765000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6798000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6831000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6864000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6897000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6930000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6963000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6996000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>7029000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>7062000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7095000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7128000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>7161000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7194000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7227000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7260000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7293000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7326000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7359000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7392000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7425000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7458000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7491000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7524000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7557000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7590000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7623000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7656000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7689000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7722000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7755000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7788000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7821000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7854000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7887000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7920000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7953000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7986000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8019000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8052000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8085000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8118000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8151000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8184000</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8217000</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8250000</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>8283000</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>8316000</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8349000</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8382000</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>8415000</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8448000</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8481000</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8514000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8547000</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8580000</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8613000</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8646000</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>8679000</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>8712000</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8745000</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8778000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8811000</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8844000</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8877000</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8910000</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8943000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8976000</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>9009000</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9042000</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>9075000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9108000</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9141000</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>9174000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9207000</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9240000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9273000</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9306000</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9339000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9372000</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9405000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9438000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9471000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9504000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9537000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9570000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9603000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>9636000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9669000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9702000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9735000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9768000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9801000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9834000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9867000</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9900000</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9933000</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9966000</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9999000</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>10032000</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>10065000</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>10098000</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>10131000</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>10164000</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>10197000</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>10230000</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>10263000</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>10296000</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10329000</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>10362000</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>10395000</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>10428000</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>10461000</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>10494000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>10527000</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>10560000</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>10593000</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>10626000</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>10659000</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>10692000</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>10725000</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>10758000</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>10791000</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>10824000</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>10857000</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>10890000</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>10923000</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>10956000</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>10989000</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11022000</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>11055000</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>11088000</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>11121000</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>11154000</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>11187000</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>11220000</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>11253000</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>11286000</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>11319000</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>11352000</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>11385000</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>11418000</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>11451000</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>11484000</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>11517000</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>11550000</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>11583000</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>11616000</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>11649000</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>11682000</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>11715000</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>11748000</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>11781000</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>11814000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>11847000</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11880000</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>11913000</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>11946000</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>11979000</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>12012000</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>12045000</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>12078000</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>12111000</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>12144000</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>12177000</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>12210000</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>12243000</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>12276000</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>12309000</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>12342000</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>12375000</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>12408000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heel_tracking_output!$C$2:$C$378</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="377"/>
+                <c:pt idx="0">
+                  <c:v>0.61679589748382502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60793334245681696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.608104467391967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62509059906005804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61856120824813798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62840390205383301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61765038967132502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61337971687316895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61799800395965498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61888676881790095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62063181400298995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61437326669692904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61253565549850397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60889577865600497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60408878326416005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60492753982543901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60763758420944203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61202383041381803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61351281404495195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61190307140350297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61139887571334794</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.608667433261871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60759043693542403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60676932334899902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.605329930782318</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60381323099136297</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60393524169921797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60287195444107</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60209637880325295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60032677650451605</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.59845495223999001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59588277339935303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57929146289825395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56838709115982</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.54906159639358498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53783947229385298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.520502388477325</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50745832920074396</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.505973219871521</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.50177884101867598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49615728855133001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49152088165283198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48523464798927302</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47444075345992998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.481192886829376</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.48680606484413103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49330541491508401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49624726176261902</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48893791437148998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49683541059494002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50032973289489702</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49408075213432301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49399667978286699</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49845314025878901</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49312272667884799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.48542571067809998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.48725014925003002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.481070756912231</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47687929868698098</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.482292830944061</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.48778489232063199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.48496699333190901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48351570963859503</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.48571342229843101</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.486332207918167</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.48194250464439298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.48127773404121399</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.48513546586036599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48459053039550698</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48623919486999501</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.48126381635665799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47984838485717701</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.48063477873802102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.47433412075042702</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.46548864245414701</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.45871224999427701</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.44853231310844399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.44339191913604697</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43224781751632602</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41935989260673501</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.410890191793441</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.40725594758987399</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.40282133221626198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.39868277311325001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.398648381233215</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.39236062765121399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.40010562539100603</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.39715766906738198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.40352171659469599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.39646708965301503</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.39196240901946999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.39912459254264798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.40112352371215798</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.40649017691612199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.40803262591362</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.40679439902305597</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.402988821268081</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.40599960088729797</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.40103060007095298</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.40066605806350702</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.39655315876007002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.40243041515350297</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.40063580870628301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.40227404236793501</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.39613533020019498</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.39992257952690102</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.40184533596038802</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.40044906735420199</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.40219217538833602</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.39863488078117298</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.39860063791275002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.39641627669334401</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.397788405418396</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.39627936482429499</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.38916233181953402</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.37928271293640098</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.36823993921279902</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.36459249258041299</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.36629459261894198</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.34789279103279103</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.35050034523010198</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.33883747458457902</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.33359882235527</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.33417418599128701</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.33134987950325001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.33021229505538902</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.32916975021362299</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.33393484354019098</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.33476889133453303</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.339492797851562</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.33963093161582902</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.34261137247085499</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.34418189525604198</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.34083086252212502</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.34083646535873402</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.34163823723793002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.33561971783638</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.33594089746475198</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.33236718177795399</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.334465622901916</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.33501833677291798</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.34210923314094499</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.33852282166481001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.338438540697097</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.33413222432136502</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.33639368414878801</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.33702760934829701</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.33652377128601002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.33576473593711798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.33697235584259</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.33617901802062899</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.33495751023292503</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.33437517285346902</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.330248683691024</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.32855483889579701</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.31918537616729697</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.31413203477859403</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.30564546585083002</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.30789110064506497</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.30380988121032698</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.28692847490310602</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.283823132514953</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.27931031584739602</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.27903413772583002</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.281512051820755</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.28135487437248202</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.28263139724731401</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.28353542089462203</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.29159754514694203</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.293078392744064</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.29173472523689198</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.28807416558265603</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.289294123649597</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.29047587513923601</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.28333029150962802</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.29260015487670898</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.283053219318389</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.282681465148925</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.27827817201614302</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.284064590930938</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.281817346811294</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.280584275722503</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.284043759107589</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.28164556622505099</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.28102654218673701</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.28329432010650601</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.28279149532318099</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.28306278586387601</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.28477543592452997</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.28372672200202897</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.28427192568778897</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.28432500362396201</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.28339558839797901</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.28191637992858798</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.27890077233314498</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.27463239431381198</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.26968842744827198</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.25860813260078402</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.25507196784019398</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.24754713475704099</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.24270956218242601</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.236482128500938</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.23754046857357</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.23751851916313099</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.23728825151920299</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.23924653232097601</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.23792803287506101</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.24119071662425901</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.242779165506362</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.24211910367011999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.24277395009994501</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.24353353679180101</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.24990174174308699</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.24540117383003199</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.24720945954322801</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.24402591586112901</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.24506357312202401</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.24273857474327001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.24204617738723699</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.24154552817344599</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.24430479109287201</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.24419231712818101</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.24564471840858401</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.24779567122459401</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.24548511207103699</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.24715387821197499</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.24527870118618</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.245976567268371</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.24398830533027599</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.24338980019092499</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.24301232397556299</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.24096421897411299</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.24013341963291099</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.240693464875221</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.23411247134208599</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.22762522101402199</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.22802345454692799</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.22009244561195301</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.21830157935619299</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.21321548521518699</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.20210626721382099</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.19918708503246299</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.196413815021514</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.197514027357101</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.19779291749000499</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.20096822082996299</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.204145908355712</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.20416834950446999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.207633167505264</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.20819616317749001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.20816072821617099</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.211295515298843</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.21145403385162301</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.21289716660976399</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.21254709362983701</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.21257188916206299</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.209872961044311</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.20996598899364399</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.21163694560527799</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.210879236459732</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.20734843611717199</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.20679251849651301</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.20910950005054399</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.21065497398376401</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.210955500602722</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.212404519319534</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.21076466143131201</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.20958961546421001</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.21072611212730399</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.211099863052368</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.211921632289886</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.21027208864688801</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.209435805678367</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.207756146788597</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.20560437440872101</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.200427740812301</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.201044902205467</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.19234018027782401</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.19076921045780099</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.188712388277053</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.17591960728168399</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.16668722033500599</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.16555342078208901</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.16631343960761999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.166974276304245</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.168935701251029</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.17230254411697299</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.17425920069217599</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.175118923187255</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.182468146085739</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.18544383347034399</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.187679633498191</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.18847428262233701</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.18636642396450001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.186413079500198</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.184543341398239</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.18333342671394301</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.17947833240032099</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.17827792465686701</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.180223673582077</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.176674559712409</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.178656831383705</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.17960660159587799</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.179299160838127</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.18091003596782601</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.180324837565422</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.18214736878871901</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.180987909436225</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.182194888591766</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.18167428672313601</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.18097534775733901</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.18099983036518</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.178432807326316</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.17997410893440199</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.17822384834289501</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.17533554136752999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.16961488127708399</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.169918984174728</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.16505533456802299</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.161235511302948</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.14963646233081801</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.15233998000621701</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.14582374691963099</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.143687903881073</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.14119815826415999</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.14177601039409601</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.14216859638690901</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.14639462530612901</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.14670535922050401</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.15009839832782701</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.15496532618999401</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.15831439197063399</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.159271359443664</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.16264654695987699</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.16093949973583199</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.16056171059608401</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.15782403945922799</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.156663998961448</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.15353420376777599</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.15328577160835199</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.153596326708793</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.156066089868545</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.15528684854507399</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.15302391350269301</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.15555475652217801</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.15633767843246399</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.15621018409729001</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.157552540302276</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.15755717456340701</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.157780706882476</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.15905526280403101</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.15874183177947901</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.156222328543663</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.15564188361167899</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.155394107103347</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.15458554029464699</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.150808289647102</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.14919939637184099</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.14662897586822499</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.140383020043373</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.139429867267608</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.13170596957206701</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.127718836069107</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.126244202256202</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.123751118779182</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.12550948560237801</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.125737249851226</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.12981028854846899</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.128577426075935</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.13016538321971799</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.13235372304916301</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.13294126093387601</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.13690690696239399</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.136893555521965</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.13575004041194899</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.13955028355121599</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.13980051875114399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EB0-5E46-A7E1-8F2E3A0F8B7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>heel_tracking_output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RightHeel_Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>heel_tracking_output!$B:$B</c:f>
+              <c:strCache>
+                <c:ptCount val="378"/>
+                <c:pt idx="0">
+                  <c:v>Timestamp_ms</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>297000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>363000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>396000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>462000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>495000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>528000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>561000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>594000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>627000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>660000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>693000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>726000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>759000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>792000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>825000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>858000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>891000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>924000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>957000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>990000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1023000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1056000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1089000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1122000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1155000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1188000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1221000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1254000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1287000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1320000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1353000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1386000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1419000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1452000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1485000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1518000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1551000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1584000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1617000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1650000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1683000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1716000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1749000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1782000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1815000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1848000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1881000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1914000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1947000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1980000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2013000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2046000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2079000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2112000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2145000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2178000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2211000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2244000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2277000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2310000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2343000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2376000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2409000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2442000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2475000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2508000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2541000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2574000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2607000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2640000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2673000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2706000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2739000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2772000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2805000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2838000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2871000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2904000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2937000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2970000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3003000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3036000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3069000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3102000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3135000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3168000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3201000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3234000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3267000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3300000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3333000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3366000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3399000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3432000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3465000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3498000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3531000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3564000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3597000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3630000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3663000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3696000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3729000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3762000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3795000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3828000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3861000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3894000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3927000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3960000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3993000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4026000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4059000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4092000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4125000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4158000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4191000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4224000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4257000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4290000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4323000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4356000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4389000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4422000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4455000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4488000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4521000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4554000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4587000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4620000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4653000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4686000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4719000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4752000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4785000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4818000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4851000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4884000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4917000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4950000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4983000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5016000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5049000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5082000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5115000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5148000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5181000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5214000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5247000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5280000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5313000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5346000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5379000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5412000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5445000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5478000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5511000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5544000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5577000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5610000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5643000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5676000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5709000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5742000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5775000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5808000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5841000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5874000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5907000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5940000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5973000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6006000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6039000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6072000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6105000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6138000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6171000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6204000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6237000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6270000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6303000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6336000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6369000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6402000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6435000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6468000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6501000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6534000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6567000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6600000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6633000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6666000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6699000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6732000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6765000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6798000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6831000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6864000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6897000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6930000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6963000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6996000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>7029000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>7062000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7095000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7128000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>7161000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7194000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7227000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7260000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7293000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7326000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7359000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7392000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7425000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>7458000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>7491000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7524000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7557000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7590000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7623000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7656000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7689000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7722000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>7755000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7788000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7821000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7854000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7887000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7920000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>7953000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7986000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8019000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8052000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>8085000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8118000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8151000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>8184000</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>8217000</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8250000</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>8283000</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>8316000</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8349000</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8382000</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>8415000</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8448000</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>8481000</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8514000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>8547000</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>8580000</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8613000</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>8646000</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>8679000</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>8712000</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8745000</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8778000</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>8811000</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8844000</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>8877000</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>8910000</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8943000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>8976000</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>9009000</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9042000</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>9075000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>9108000</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>9141000</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>9174000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>9207000</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>9240000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9273000</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>9306000</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9339000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>9372000</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>9405000</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>9438000</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>9471000</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>9504000</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>9537000</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>9570000</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>9603000</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>9636000</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>9669000</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>9702000</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>9735000</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9768000</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>9801000</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9834000</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>9867000</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>9900000</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9933000</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>9966000</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>9999000</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>10032000</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>10065000</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>10098000</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>10131000</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>10164000</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>10197000</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>10230000</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>10263000</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>10296000</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10329000</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>10362000</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>10395000</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>10428000</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>10461000</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>10494000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>10527000</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>10560000</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>10593000</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>10626000</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>10659000</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>10692000</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>10725000</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>10758000</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>10791000</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>10824000</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>10857000</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>10890000</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>10923000</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>10956000</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>10989000</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>11022000</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>11055000</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>11088000</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>11121000</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>11154000</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>11187000</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>11220000</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>11253000</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>11286000</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>11319000</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>11352000</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>11385000</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>11418000</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>11451000</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>11484000</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>11517000</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>11550000</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>11583000</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>11616000</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>11649000</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>11682000</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>11715000</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>11748000</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>11781000</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>11814000</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>11847000</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11880000</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>11913000</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>11946000</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>11979000</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>12012000</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>12045000</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>12078000</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>12111000</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>12144000</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>12177000</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>12210000</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>12243000</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>12276000</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>12309000</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>12342000</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>12375000</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>12408000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heel_tracking_output!$D$2:$D$378</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="377"/>
+                <c:pt idx="0">
+                  <c:v>0.67513191699981601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67270201444625799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67316943407058705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67988288402557295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67005002498626698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67445981502532903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67050534486770597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66822993755340498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66730254888534501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66521137952804499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66421806812286299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65219777822494496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64062005281448298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63633060455322199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60533100366592396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60871529579162598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58393430709838801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57720452547073298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56820619106292702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.555009245872497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55287170410156194</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54593133926391602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54732596874237005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54586821794509799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54061114788055398</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54264819622039795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54005956649780196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53683078289031905</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53998452425002996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54220008850097601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55376750230789096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.55392128229141202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55774885416030795</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56409221887588501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.56485396623611395</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54833769798278797</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53639113903045599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53822505474090498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54449516534805298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54228830337524403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.54266315698623602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53881168365478505</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53928148746490401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53845423460006703</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.541950464248657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.54076844453811601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.53677409887313798</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53390657901763905</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53406578302383401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.531125247478485</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53251129388809204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52375203371047896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52446013689041104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51139938831329301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.50304442644119196</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49531394243240301</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.49056848883628801</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.47437810897827098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46509605646133401</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45662549138069097</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.45188573002815202</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44507336616516102</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.440454751253128</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.43850079178810097</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43838942050933799</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.44162249565124501</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.43753573298454201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.438390493392944</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.431245177984237</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.43508338928222601</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.435682922601699</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.43593943119049</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.43992161750793402</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.446928590536117</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.43745124340057301</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.451159387826919</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.459232598543167</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.453567624092102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.44109115004539401</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44573506712913502</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44569104909896801</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.44564980268478299</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.43989941477775502</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.43822312355041498</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.44023352861404402</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.439034193754196</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.44019177556037897</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.44241958856582603</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.43730881810188199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.43732443451881398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.43617632985115001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.43436872959136902</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.43185678124427701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.42962211370468101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.42249524593353199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.42188310623168901</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.41241225600242598</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.40156927704811002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.39233031868934598</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.381901204586029</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.37628617882728499</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.37263044714927601</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.36775231361389099</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.36597591638565002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.35928958654403598</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.36014321446418701</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.36072403192520103</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.36070847511291498</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.36026260256767201</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.35776519775390597</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.35817846655845598</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.35915374755859297</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.36387419700622498</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.37237742543220498</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.371975988149642</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.36499947309494002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.36604377627372697</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.35995915532112099</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.36893621087074202</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.36126455664634699</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.36453974246978699</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.36812329292297302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.36105325818061801</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.36719009280204701</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.36503529548644997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.36596694588661099</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.36487337946891701</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.36337530612945501</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.364363133907318</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.36264160275459201</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.362934410572052</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.36296138167381198</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.36190497875213601</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.35841140151023798</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.356449514627456</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.35051611065864502</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.34128880500793402</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.33623057603835999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.32544487714767401</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.32511565089225702</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.31770089268684298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.31148576736450101</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.31136631965637201</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.30642861127853299</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.30490916967391901</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.302341699600219</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.30330097675323398</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.30300125479698098</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.30059242248535101</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.30045565962791398</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.29997700452804499</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.30283215641975397</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.30368536710739102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.30590310692787098</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.306915193796157</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.31587621569633401</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.31338554620742798</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.306936144828796</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.30901524424552901</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.31024384498596103</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.30888426303863498</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.30852288007736201</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.30883556604385298</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.31316229701042098</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.308238625526428</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.30833694338798501</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.30961835384368802</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.30976754426956099</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.30958080291748002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.309613227844238</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.30650231242179798</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.30540356040000899</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.30487948656082098</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.30428019165992698</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.30548638105392401</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.29939067363739003</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.28478103876113797</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.28268048167228699</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.27603527903556802</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.27188616991043002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.259604752063751</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.253250211477279</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.25005432963371199</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.249696880578994</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.24770331382751401</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.250577002763748</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.25187468528747498</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.25586509704589799</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.259969472885131</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.25739103555679299</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.259271740913391</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.26228263974189697</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.262071102857589</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.26315647363662698</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.26595115661620999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.26516470313072199</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.26970684528350802</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.26992905139923001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.26472270488739003</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.26486027240753102</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.26665619015693598</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.26482069492339999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.26590728759765597</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.267120271921157</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.266623795032501</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.26555523276329002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.26506239175796498</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.263388991355896</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.26408377289772</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.26317498087882901</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.26396286487579301</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.26211252808570801</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.25992059707641602</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.25962695479393</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.25922083854675199</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.253731399774551</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.25219520926475503</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.245949402451515</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.24019555747509</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.23424078524112699</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.22637544572353299</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.22051046788692399</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.21358104050159399</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.21423216164111999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.21210734546184501</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.210225284099578</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.21133233606815299</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.214341506361961</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.21579974889755199</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.22329267859458901</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.222850516438484</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.22901888191699901</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.23077704012393899</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.22897361218929199</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.23282921314239499</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.23465752601623499</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.224803522229194</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.22999590635299599</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.23125150799751201</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.223788827657699</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.22413241863250699</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.22857898473739599</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.22898903489112801</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.22901883721351601</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.22775319218635501</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.22684659063816001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.22597281634807501</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.22603578865528101</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.22619292140007</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.22448229789733801</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.22406046092510201</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.22524350881576499</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.224977672100067</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.224037230014801</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.22169536352157501</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.22008638083934701</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.21367709338665</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.20509839057922299</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.199923545122146</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.19276373088359799</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.18862949311733199</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.184606343507766</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.18237909674644401</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.183666586875915</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.18332433700561501</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.183544516563415</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.18464297056198101</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.18584682047366999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.18639567494392301</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.19156056642532299</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.191011607646942</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.19285479187965299</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.19253666698932601</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.19608916342258401</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.19937466084957101</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.20411033928394301</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.201016440987586</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.20018607378005901</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.198431432247161</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.19573463499546001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.19326043128967199</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.19556032121181399</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.19906161725520999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.19808697700500399</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.19549185037612901</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.19547671079635601</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.19635732471942899</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.19568897783756201</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.19553458690643299</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.19581010937690699</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.195818707346916</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.194913789629936</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.19303581118583599</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.19329889118671401</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.19043955206870999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.18715709447860701</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.18666964769363401</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.18115150928497301</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.17578735947608901</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.170983150601387</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.16240248084068201</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.159266456961631</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.16035671532154</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.16003879904747001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.15973164141178101</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.15984661877155301</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.16052353382110501</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.16332192718982599</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.16430972516536699</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.16533288359642001</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.16404810547828599</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.16294986009597701</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.16832947731018</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.16377103328704801</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.169346198439598</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.169748410582542</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.16860955953598</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.16999964416027</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.16830563545227001</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.167968764901161</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.16730557382106701</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.170304730534553</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.170732706785202</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.17212432622909499</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.171867355704307</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.168289169669151</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.16824366152286499</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.168535336852073</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.16965444386005399</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.16926828026771501</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.168985620141029</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.168449386954307</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.16814586520194999</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.16837412118911699</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.16679827868938399</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.16439139842986999</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.160238891839981</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.15696400403976399</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.15444086492061601</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.14914892613887701</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.14448870718479101</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.142596200108528</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.139063000679016</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.13864243030548001</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.13743501901626501</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.13841083645820601</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.13690418004989599</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.13650356233119901</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.13654148578643799</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.13868840038776301</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.13837477564811701</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.140527889132499</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.14588314294815</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.149448662996292</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.151512876152992</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.147954896092414</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.14854484796524001</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.148987457156181</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.148192748427391</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.14889279007911599</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.14876653254032099</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.14763943850994099</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.147432640194892</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.145973876118659</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.14618453383445701</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.14766955375671301</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.14675110578536901</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.14780892431735901</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.144030526280403</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.146066963672637</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.14566217362880701</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.14566004276275599</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.146282494068145</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.146316617727279</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.145729050040245</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.14662496745586301</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.14650672674178999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9EB0-5E46-A7E1-8F2E3A0F8B7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522363024"/>
+        <c:axId val="522364752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522363024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522364752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522364752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pixel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522363024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F47FAD-7AB6-AA9A-49AB-EB1DB8EF0EE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,7 +6434,7 @@
   <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6178,5 +11737,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>